--- a/Palay and Corn Price Monitoring as of November 22, 2016 (rice).xlsx
+++ b/Palay and Corn Price Monitoring as of November 22, 2016 (rice).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="837" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="837" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Antequera" sheetId="7" r:id="rId1"/>
@@ -13,20 +13,21 @@
     <sheet name="Candijay" sheetId="12" r:id="rId4"/>
     <sheet name="Catigbian" sheetId="4" r:id="rId5"/>
     <sheet name="Danao" sheetId="15" r:id="rId6"/>
-    <sheet name="Garcia-Hernandez" sheetId="1" r:id="rId7"/>
-    <sheet name="Jagna" sheetId="18" r:id="rId8"/>
-    <sheet name="Loboc" sheetId="17" r:id="rId9"/>
-    <sheet name="Pilar" sheetId="6" r:id="rId10"/>
-    <sheet name="Sierra-Bullones" sheetId="13" r:id="rId11"/>
-    <sheet name="Talibon" sheetId="11" r:id="rId12"/>
-    <sheet name="Consolidated Nov22" sheetId="21" r:id="rId13"/>
+    <sheet name="Duero" sheetId="22" r:id="rId7"/>
+    <sheet name="Garcia-Hernandez" sheetId="1" r:id="rId8"/>
+    <sheet name="Jagna" sheetId="18" r:id="rId9"/>
+    <sheet name="Loboc" sheetId="17" r:id="rId10"/>
+    <sheet name="Pilar" sheetId="6" r:id="rId11"/>
+    <sheet name="Sierra-Bullones" sheetId="13" r:id="rId12"/>
+    <sheet name="Talibon" sheetId="11" r:id="rId13"/>
+    <sheet name="Consolidated Nov22" sheetId="21" r:id="rId14"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="178">
   <si>
     <t>Jecelyn Pagaran</t>
   </si>
@@ -527,6 +528,39 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Fe Tan</t>
+  </si>
+  <si>
+    <t>Roque Escobido</t>
+  </si>
+  <si>
+    <t>Cresanto Besagas</t>
+  </si>
+  <si>
+    <t>Jemaima Bernat</t>
+  </si>
+  <si>
+    <t>Evelyn Berro</t>
+  </si>
+  <si>
+    <t>Irenia Aguiman</t>
+  </si>
+  <si>
+    <t>Mawi</t>
+  </si>
+  <si>
+    <t>DUERO</t>
+  </si>
+  <si>
+    <t>Bangwalog</t>
+  </si>
+  <si>
+    <t>Lobogon</t>
+  </si>
+  <si>
+    <t>Duero</t>
   </si>
 </sst>
 </file>
@@ -638,7 +672,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -700,6 +734,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -710,25 +758,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1049,47 +1090,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="28" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="34" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="17" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="28"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -1226,6 +1267,225 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="37"/>
+      <c r="G2" s="34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="34"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="8">
+        <v>21</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E15" s="2">
+        <f>AVERAGE(E5:E7)</f>
+        <v>21</v>
+      </c>
+      <c r="F15" s="2">
+        <f>AVERAGE(F5:F7)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E17" s="2" t="e">
+        <f>AVERAGE(E9:E11)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F18"/>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F19" s="2">
+        <f>AVERAGE(F5:F11)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1240,51 +1500,51 @@
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="14.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29" style="39" customWidth="1"/>
+    <col min="7" max="7" width="29" style="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="40" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="17" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="36"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -1293,7 +1553,7 @@
       <c r="D4" s="16"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
-      <c r="G4" s="37"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -1312,7 +1572,7 @@
       <c r="F5" s="8">
         <v>7</v>
       </c>
-      <c r="G5" s="38"/>
+      <c r="G5" s="31"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1329,7 +1589,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="8"/>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="31" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1350,7 +1610,7 @@
       <c r="F7" s="8">
         <v>10</v>
       </c>
-      <c r="G7" s="38"/>
+      <c r="G7" s="31"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -1369,7 +1629,7 @@
       <c r="F8" s="8">
         <v>10</v>
       </c>
-      <c r="G8" s="38"/>
+      <c r="G8" s="31"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1388,7 +1648,7 @@
       <c r="F9" s="8">
         <v>10</v>
       </c>
-      <c r="G9" s="38"/>
+      <c r="G9" s="31"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
@@ -1397,7 +1657,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="38"/>
+      <c r="G10" s="31"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E12" s="1">
@@ -1436,7 +1696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
@@ -1456,47 +1716,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="28" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="34" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="38"/>
       <c r="E3" s="17" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="28"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -1631,12 +1891,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1651,47 +1911,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="28" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="34" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="17" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="28"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -1854,6 +2114,10 @@
       <c r="G13" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D15" s="42">
+        <f>SUM(E5:E7)/3</f>
+        <v>16</v>
+      </c>
       <c r="E15" s="2">
         <f>AVERAGE(E5:E7)</f>
         <v>16</v>
@@ -1903,15 +2167,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A2:H36"/>
+  <dimension ref="A2:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1924,13 +2188,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="21"/>
@@ -1938,37 +2202,37 @@
       <c r="E3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="41"/>
       <c r="E4" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="28" t="s">
+      <c r="D6" s="37"/>
+      <c r="E6" s="34" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="28"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="19" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="28"/>
+      <c r="E7" s="34"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -1979,7 +2243,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <f>ROW(A1)</f>
+        <f t="shared" ref="A9:A21" si="0">ROW(A1)</f>
         <v>1</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1997,24 +2261,24 @@
         <v>82</v>
       </c>
       <c r="H9">
-        <f>COUNTIF(D9:D20,"&gt;0")</f>
+        <f>COUNTIF(D9:D21,"&gt;0")</f>
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <f>ROW(A2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C10" s="8">
-        <f>'Bien Unido'!F17</f>
-        <v>14.625</v>
+        <f>'Bien Unido'!F15</f>
+        <v>15.25</v>
       </c>
       <c r="D10" s="8">
-        <f>'Bien Unido'!G17</f>
+        <f>'Bien Unido'!G15</f>
         <v>0</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -2023,7 +2287,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <f>ROW(A3)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -2043,7 +2307,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <f>ROW(A4)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -2063,7 +2327,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <f>ROW(A5)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -2083,7 +2347,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <f>ROW(A6)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2103,198 +2367,223 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <f>ROW(A7)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C15" s="8">
+        <f>Duero!E18</f>
+        <v>19.833333333333332</v>
+      </c>
+      <c r="D15" s="8">
+        <f>Duero!F18</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C16" s="8">
         <f>'Garcia-Hernandez'!E16</f>
         <v>21.388888888888889</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D16" s="8">
         <f>'Garcia-Hernandez'!F16</f>
         <v>10</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <f>ROW(A8)</f>
-        <v>8</v>
-      </c>
-      <c r="B16" s="4" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C17" s="8">
         <f>Jagna!E15</f>
         <v>19.333333333333332</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D17" s="8">
         <f>Jagna!F15</f>
         <v>0</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <f>ROW(A9)</f>
-        <v>9</v>
-      </c>
-      <c r="B17" s="4" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C18" s="8">
         <f>Loboc!E15</f>
         <v>21</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D18" s="8">
         <f>Loboc!F15</f>
         <v>0</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <f>ROW(A10)</f>
-        <v>10</v>
-      </c>
-      <c r="B18" s="4" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C19" s="8">
         <f>Pilar!E14</f>
         <v>17.3</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D19" s="8">
         <f>Pilar!F14</f>
         <v>9.25</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <f>ROW(A11)</f>
-        <v>11</v>
-      </c>
-      <c r="B19" s="4" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C20" s="8">
         <f>'Sierra-Bullones'!E14</f>
         <v>17.375</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D20" s="8">
         <f>'Sierra-Bullones'!F14</f>
         <v>9</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <f>ROW(A12)</f>
-        <v>12</v>
-      </c>
-      <c r="B20" s="4" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="8">
-        <f>Talibon!E19</f>
-        <v>15</v>
-      </c>
-      <c r="D20" s="8">
+      <c r="C21" s="8">
+        <f>Talibon!E15</f>
+        <v>16</v>
+      </c>
+      <c r="D21" s="8">
         <f>Talibon!F19</f>
         <v>10</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="8"/>
+      <c r="C22" s="8">
+        <f>Talibon!E17</f>
+        <v>14</v>
+      </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="8">
-        <f>SUM(C9:C20)</f>
-        <v>215.53813131313132</v>
-      </c>
-      <c r="D23" s="12">
-        <f>SUM(D9:D20)</f>
-        <v>65.25</v>
-      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="B24" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" s="8">
+        <f>SUM(C9:C22)</f>
+        <v>250.99646464646466</v>
+      </c>
+      <c r="D24" s="12">
+        <f>SUM(D9:D22)</f>
+        <v>65.25</v>
+      </c>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C25" s="10">
-        <f>AVERAGE(C9:C20)</f>
-        <v>17.961510942760942</v>
-      </c>
-      <c r="D25" s="10">
-        <f>D23/H9</f>
+      <c r="C26" s="10">
+        <f>AVERAGE(C9:C22)</f>
+        <v>17.928318903318903</v>
+      </c>
+      <c r="D26" s="10">
+        <f>D24/H9</f>
         <v>9.3214285714285712</v>
       </c>
-      <c r="E25" s="11"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+      <c r="E26" s="11"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="15"/>
-    </row>
-    <row r="35" spans="2:3" ht="17.25" x14ac:dyDescent="0.4">
-      <c r="B35" s="22" t="s">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="15"/>
+    </row>
+    <row r="36" spans="2:3" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B36" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="22"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="20" t="s">
+      <c r="C36" s="22"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="20"/>
+      <c r="C37" s="20"/>
     </row>
   </sheetData>
   <sortState ref="A9:E20">
@@ -2317,7 +2606,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2332,42 +2621,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="35" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="23"/>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="28" t="s">
+      <c r="G2" s="37"/>
+      <c r="H2" s="34" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="24"/>
       <c r="F3" s="19" t="s">
         <v>6</v>
@@ -2375,7 +2664,7 @@
       <c r="G3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="28"/>
+      <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -2586,42 +2875,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="35" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="23"/>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="28" t="s">
+      <c r="G2" s="37"/>
+      <c r="H2" s="34" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="24"/>
       <c r="F3" s="19" t="s">
         <v>6</v>
@@ -2629,7 +2918,7 @@
       <c r="G3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="28"/>
+      <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -2845,47 +3134,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="28" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="34" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="38"/>
       <c r="E3" s="17" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="28"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -3180,47 +3469,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="28" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="34" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="17" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="28"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -3507,57 +3796,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="28" t="s">
+      <c r="F5" s="37"/>
+      <c r="G5" s="34" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="30"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="36"/>
       <c r="E6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="28"/>
+      <c r="G6" s="34"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -3789,6 +4078,315 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="37"/>
+      <c r="G5" s="34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="34"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="28"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8">
+        <v>20</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="8">
+        <v>20</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>3</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="8">
+        <v>19</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>4</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="8">
+        <v>20</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>5</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="8">
+        <v>20</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>6</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="8">
+        <v>20</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="8">
+        <f>SUM(E8:E13)</f>
+        <v>119</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="10">
+        <f>AVERAGE(E8:E13)</f>
+        <v>19.833333333333332</v>
+      </c>
+      <c r="F18" s="10">
+        <f>AVERAGE(F8:F13)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E22"/>
+      <c r="F22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:G6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
@@ -3808,15 +4406,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
@@ -4064,7 +4662,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -4084,47 +4682,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="28" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="34" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="19" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="28"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -4301,225 +4899,6 @@
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:G3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="28"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="18"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="8">
-        <v>21</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>2</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>5</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>6</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>7</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E15" s="2">
-        <f>AVERAGE(E5:E7)</f>
-        <v>21</v>
-      </c>
-      <c r="F15" s="2">
-        <f>AVERAGE(F5:F7)</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E17" s="2" t="e">
-        <f>AVERAGE(E9:E11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="F18"/>
-    </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="F19" s="2">
-        <f>AVERAGE(F5:F11)</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
